--- a/FLOW timesheet.xlsx
+++ b/FLOW timesheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>DATE</t>
   </si>
@@ -148,13 +148,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Images selected &amp; uploaded (Note: </t>
     </r>
     <r>
@@ -165,7 +158,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Category &amp; tags not in scope</t>
+      <t>Only static (predefined) categories wil be give</t>
     </r>
     <r>
       <rPr>
@@ -310,16 +303,37 @@
   <si>
     <t>(Menu&gt; Programs)Dropdown menu inside the program’s sections misses graphical elements- (Looks plain in white box) </t>
   </si>
+  <si>
+    <t>Send idea (XD png file) for "FLOW" word representation like logo</t>
+  </si>
+  <si>
+    <t>Give pre-defined categories in blog. No comments section will be given. Events section cannot be categorised to "past" &amp; "current" events. Site cannot be made Live without SALES clearance.</t>
+  </si>
+  <si>
+    <t>Bullet points representation to be changed. Ref will be sent by Jenis</t>
+  </si>
+  <si>
+    <t>Color of White blob in the headings to be changed</t>
+  </si>
+  <si>
+    <t>Shape of blobs for AIR to be changed</t>
+  </si>
+  <si>
+    <t>Increase size  &amp;  weight of overview content in both programs</t>
+  </si>
+  <si>
+    <t>White background color to be changed in timeline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -403,6 +417,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -411,92 +478,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,6 +503,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -525,8 +531,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,19 +579,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,151 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +765,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,38 +827,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,38 +858,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,115 +882,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,14 +999,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1001,9 +1015,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,9 +1023,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1052,9 +1060,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1388,10 +1393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1400,37 +1405,37 @@
     <col min="2" max="2" width="45.1428571428571" style="2" customWidth="1"/>
     <col min="3" max="3" width="48.8571428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5714285714286" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.14285714285714" style="4"/>
+    <col min="5" max="5" width="33.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>44206</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>44208</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1441,66 +1446,66 @@
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>44211</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>44212</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>44214</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="30" spans="2:3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>44215</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>44218</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>44226</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1508,7 +1513,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>44229</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1516,7 +1521,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>44230</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1527,10 +1532,10 @@
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1558,14 +1563,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="3:5">
+    <row r="20" ht="30" spans="3:4">
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="1"/>
     </row>
     <row r="21" ht="45" spans="3:4">
       <c r="C21" s="2" t="s">
@@ -1576,27 +1580,26 @@
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:5">
-      <c r="A23" s="8">
+    <row r="23" ht="30" spans="1:4">
+      <c r="A23" s="6">
         <v>44231</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
@@ -1604,10 +1607,10 @@
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>44232</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1615,7 +1618,7 @@
       </c>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1623,15 +1626,15 @@
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="14"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" ht="45" spans="3:4">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1639,7 +1642,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>44233</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1650,7 +1653,7 @@
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1658,7 +1661,7 @@
       </c>
     </row>
     <row r="34" ht="42.75" spans="3:4">
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1666,23 +1669,23 @@
       </c>
     </row>
     <row r="35" ht="42.75" spans="3:4">
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="3:4">
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>44235</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1690,7 +1693,7 @@
       </c>
     </row>
     <row r="39" ht="85.5" spans="3:4">
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1698,15 +1701,15 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>44237</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="3:4">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1714,13 +1717,13 @@
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" ht="28.5" spans="3:4">
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1728,12 +1731,12 @@
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" ht="28.5" spans="3:4">
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -1741,7 +1744,7 @@
       </c>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -1749,28 +1752,28 @@
       </c>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="14"/>
-      <c r="D49" s="21"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="21"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="19"/>
-      <c r="D51" s="21"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="20"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" ht="57" spans="3:4">
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -1778,7 +1781,7 @@
       </c>
     </row>
     <row r="55" ht="28.5" spans="3:4">
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -1786,79 +1789,79 @@
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="3:4">
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="20"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" ht="28.5" spans="3:4">
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="20"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" ht="28.5" spans="3:4">
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="20"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" ht="28.5" spans="3:4">
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="20"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="14"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="22"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" ht="42.75" spans="3:4">
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="22"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" ht="42.75" spans="3:4">
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" ht="42.75" spans="3:4">
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -1866,13 +1869,13 @@
       </c>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="20"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -1880,11 +1883,50 @@
       </c>
     </row>
     <row r="73" ht="42.75" spans="3:4">
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="21" t="s">
-        <v>25</v>
+      <c r="D73" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" ht="90" spans="1:5">
+      <c r="A75" s="6">
+        <v>44240</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" ht="30" spans="3:3">
+      <c r="C76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" ht="30" spans="3:3">
+      <c r="C79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/FLOW timesheet.xlsx
+++ b/FLOW timesheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>DATE</t>
   </si>
@@ -313,7 +313,7 @@
     <t>Bullet points representation to be changed. Ref will be sent by Jenis</t>
   </si>
   <si>
-    <t>Color of White blob in the headings to be changed</t>
+    <t>Color of White blob in the headings &amp; timeline to be changed</t>
   </si>
   <si>
     <t>Shape of blobs for AIR to be changed</t>
@@ -322,7 +322,14 @@
     <t>Increase size  &amp;  weight of overview content in both programs</t>
   </si>
   <si>
-    <t>White background color to be changed in timeline</t>
+    <t>No changes</t>
+  </si>
+  <si>
+    <t>One thing that’s missed is ‘Free to learn our way’- what I meant is entire letters to be coloured not just first alphabet.
+Please send corrected and we can close this. We are for sure keeping Flow everywhere as in the logo. Looks gorgeous.</t>
+  </si>
+  <si>
+    <t>Sent revised idea (XD png file) for "FLOW" word representation like logo</t>
   </si>
 </sst>
 </file>
@@ -330,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -402,6 +409,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -410,31 +438,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,6 +470,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -464,7 +484,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,6 +498,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -488,7 +515,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,45 +529,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,6 +580,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -585,7 +610,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,61 +652,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,85 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,11 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,37 +822,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,18 +845,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,130 +886,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,10 +1400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1904,29 +1911,58 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="30" spans="3:3">
+    <row r="76" ht="30" spans="3:4">
       <c r="C76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="3:3">
+      <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" ht="30" spans="3:4">
       <c r="C77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="3:3">
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
       <c r="C78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" ht="30" spans="3:3">
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" ht="30" spans="3:4">
       <c r="C79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="81" ht="90" spans="1:4">
+      <c r="A81" s="6">
+        <v>44241</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" ht="30" spans="1:4">
+      <c r="A83" s="6">
+        <v>44242</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
